--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3197.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3197.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9071937754736784</v>
+        <v>1.659095525741577</v>
       </c>
       <c r="B1">
-        <v>1.425916340533222</v>
+        <v>2.530667781829834</v>
       </c>
       <c r="C1">
-        <v>3.703182329351694</v>
+        <v>2.925381660461426</v>
       </c>
       <c r="D1">
-        <v>5.921674911484071</v>
+        <v>3.173591136932373</v>
       </c>
       <c r="E1">
-        <v>2.020988830855948</v>
+        <v>1.054108381271362</v>
       </c>
     </row>
   </sheetData>
